--- a/framework/src/main/java/com/framework/config/TestScenario.xlsx
+++ b/framework/src/main/java/com/framework/config/TestScenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -310,19 +310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -428,22 +415,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -459,7 +444,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -472,20 +457,46 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,30 +505,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,12 +543,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,78 +868,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -936,15 +948,15 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -953,228 +965,228 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>49</v>
+      <c r="C9" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>19</v>
+      <c r="E9" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1188,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,41 +1214,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1248,12 +1260,12 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1265,12 +1277,12 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1282,12 +1294,12 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1299,12 +1311,12 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1316,24 +1328,24 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>24</v>
       </c>
     </row>

--- a/framework/src/main/java/com/framework/config/TestScenario.xlsx
+++ b/framework/src/main/java/com/framework/config/TestScenario.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Step No</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>BTN_Login</t>
+  </si>
+  <si>
+    <t>Asset Text Equal</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1187,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>24</v>

--- a/framework/src/main/java/com/framework/config/TestScenario.xlsx
+++ b/framework/src/main/java/com/framework/config/TestScenario.xlsx
@@ -457,10 +457,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -470,23 +483,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,8 +508,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,11 +544,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,7 +859,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,325 +872,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="22" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1217,41 +1218,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1263,12 +1264,12 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1280,12 +1281,12 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1297,12 +1298,12 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1314,12 +1315,12 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1331,24 +1332,24 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
     </row>

--- a/framework/src/main/java/com/framework/config/TestScenario.xlsx
+++ b/framework/src/main/java/com/framework/config/TestScenario.xlsx
@@ -206,7 +206,7 @@
     <t>BTN_Login</t>
   </si>
   <si>
-    <t>Asset Text Equal</t>
+    <t>Assert Text Equal</t>
   </si>
 </sst>
 </file>
@@ -859,7 +859,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/framework/src/main/java/com/framework/config/TestScenario.xlsx
+++ b/framework/src/main/java/com/framework/config/TestScenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/framework/src/main/java/com/framework/config/TestScenario.xlsx
+++ b/framework/src/main/java/com/framework/config/TestScenario.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>Step No</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Verify Text Match</t>
-  </si>
-  <si>
-    <t>Asset Equal</t>
   </si>
   <si>
     <t>Verify Equal</t>
@@ -859,7 +856,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E19" sqref="C19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -910,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>5</v>
@@ -919,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>5</v>
@@ -936,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,16 +941,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,16 +958,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,16 +975,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,16 +992,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,16 +1009,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,16 +1026,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,16 +1043,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,16 +1060,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,16 +1077,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,16 +1094,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,16 +1111,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,16 +1128,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1148,16 +1145,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -1182,16 +1179,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1202,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1210,7 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1239,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1256,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -1265,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -1282,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1290,16 +1287,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,16 +1304,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,10 +1321,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1341,16 +1338,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
